--- a/codes/Section3 Numerical Study/Hyper_Parameters.xlsx
+++ b/codes/Section3 Numerical Study/Hyper_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenology/Desktop/光华/ 论文/4-Crowdsourcing/codes/Section3 Numerical Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861A776E-CF0A-AD45-A6D2-761501FE4CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC78FD2-1DA2-B04A-869B-104A931020A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22940" windowHeight="13160" xr2:uid="{20C59DAD-ABAA-8649-8FFB-F23D28A6FD50}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="35080" windowHeight="19280" xr2:uid="{20C59DAD-ABAA-8649-8FFB-F23D28A6FD50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="270" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -568,7 +568,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>

--- a/codes/Section3 Numerical Study/Hyper_Parameters.xlsx
+++ b/codes/Section3 Numerical Study/Hyper_Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenology/Desktop/光华/ 论文/4-Crowdsourcing/codes/Section3 Numerical Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC78FD2-1DA2-B04A-869B-104A931020A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F071B9B5-D6AA-884A-9056-1EB8A3C07ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="35080" windowHeight="19280" xr2:uid="{20C59DAD-ABAA-8649-8FFB-F23D28A6FD50}"/>
   </bookViews>
@@ -104,11 +104,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.01 0.05 0.1 0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>What propotion of the samples are selected for first-round annotation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05 0.1 0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +476,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="270" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -524,7 +524,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -535,10 +535,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -568,7 +568,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -577,5 +577,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/codes/Section3 Numerical Study/Hyper_Parameters.xlsx
+++ b/codes/Section3 Numerical Study/Hyper_Parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenology/Desktop/光华/ 论文/4-Crowdsourcing/codes/Section3 Numerical Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F071B9B5-D6AA-884A-9056-1EB8A3C07ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABDE960-0720-534A-978D-C957C314F193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="35080" windowHeight="19280" xr2:uid="{20C59DAD-ABAA-8649-8FFB-F23D28A6FD50}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="22940" windowHeight="13180" xr2:uid="{20C59DAD-ABAA-8649-8FFB-F23D28A6FD50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.05 0.1 0.5</t>
+    <t>0.05 0.1 0.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7575DE-D030-954E-BA05-859F2D2D6F8A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="270" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="240" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
